--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-default-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7119565217391305</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5670995670995671</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6313253012048193</v>
+        <v>0.9164969450101834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5982740203519424</v>
+        <v>0.9629410993047356</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5194805194805194</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6837606837606837</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.999962519443039</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9521739130434783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7874015748031497</v>
+        <v>0.9501084598698483</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9948240165631469</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4989154013015185</v>
+        <v>0.9659574468085106</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9869565217391304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6657018813314037</v>
+        <v>0.9763440860215054</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6119518162996423</v>
+        <v>0.9960850743459438</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8421743846081299</v>
+        <v>0.9558373941815199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6614718614718614</v>
+        <v>0.9809410878976097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6990924336745568</v>
+        <v>0.9677240973145066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.842045167330317</v>
+        <v>0.990762541931373</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-default-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.6735395189003437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9164969450101834</v>
+        <v>0.7855711422845693</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9629410993047356</v>
+        <v>0.8693370931952662</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9585567677514792</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9759615384615384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.8962472406181016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999962519443039</v>
+        <v>0.9537606323964497</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.5698630136986301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.948051948051948</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9501084598698483</v>
+        <v>0.7260034904013962</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9948240165631469</v>
+        <v>0.7107294748520711</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9659574468085106</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869565217391304</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9763440860215054</v>
+        <v>0.7098976109215017</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960850743459438</v>
+        <v>0.652967825443787</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9558373941815199</v>
+        <v>0.7001233779626662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9809410878976097</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9677240973145066</v>
+        <v>0.8049392456823231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.990762541931373</v>
+        <v>0.8290703587278105</v>
       </c>
     </row>
   </sheetData>
